--- a/Dataset/Folds/Fold_5/Excel/105.xlsx
+++ b/Dataset/Folds/Fold_5/Excel/105.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4994" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5570" uniqueCount="846">
   <si>
     <t>Doi</t>
   </si>
@@ -2653,6 +2653,342 @@
   </si>
   <si>
     <t>[Hui%Dai%NULL%1,                            Xin%Zhang%NULL%0,                            Jianguo%Xia%NULL%1,                            Tao%Zhang%NULL%1,                            Yalei%Shang%NULL%1,                            Renjun%Huang%NULL%1,                            Rongrong%Liu%NULL%1,                            Dan%Wang%NULL%0,                            Min%Li%105549156@qq.com%1,                            Jinping%Wu%czwjp@sina.com%1,                            Qiuzhen%Xu%xuqiuzhen831@sina.com%1,                            Yonggang%Li%liyonggang224@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Alireza%Abrishami%NULL%1,                             Shiva%Samavat%NULL%1,                             Behdad%Behnam%NULL%1,                             Mehran%Arab-Ahmadi%NULL%1,                             Mohsen%Nafar%NULL%1,                             Morteza%Sanei Taheri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%NULL%2,                             Elisa%Delbarba%NULL%2,                             Chiara%Manenti%NULL%2,                             Laura%Econimo%NULL%2,                             Francesca%Valerio%NULL%2,                             Alessandra%Pola%NULL%2,                             Camilla%Maffei%NULL%2,                             Stefano%Possenti%NULL%2,                             Nicole%Zambetti%NULL%1,                             Marianna%Moscato%NULL%1,                             Margherita%Venturini%NULL%1,                             Stefania%Affatato%NULL%2,                             Mario%Gaggiotti%NULL%2,                             Nicola%Bossini%NULL%2,                             Francesco%Scolari%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%federico.alberici@unibs.it%0,                             Elisa%Delbarba%NULL%0,                             Chiara%Manenti%NULL%0,                             Laura%Econimo%NULL%0,                             Francesca%Valerio%NULL%0,                             Alessandra%Pola%NULL%0,                             Camilla%Maffei%NULL%0,                             Stefano%Possenti%NULL%0,                             Bernardo%Lucca%NULL%1,                             Roberta%Cortinovis%NULL%1,                             Vincenzo%Terlizzi%NULL%1,                             Mattia%Zappa%NULL%1,                             Chiara%Saccà%NULL%1,                             Elena%Pezzini%NULL%1,                             Eleonora%Calcaterra%NULL%1,                             Paola%Piarulli%NULL%1,                             Alice%Guerini%NULL%1,                             Francesca%Boni%NULL%1,                             Agnese%Gallico%NULL%1,                             Alberto%Mucchetti%NULL%1,                             Stefania%Affatato%NULL%0,                             Sergio%Bove%NULL%1,                             Martina%Bracchi%NULL%1,                             Ester Maria%Costantino%NULL%1,                             Roberto%Zubani%NULL%1,                             Corrado%Camerini%NULL%1,                             Paola%Gaggia%NULL%1,                             Ezio%Movilli%NULL%1,                             Nicola%Bossini%NULL%0,                             Mario%Gaggiotti%NULL%0,                             Francesco%Scolari%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%0,                             Jordi%Rello%NULL%1,                             Sofia%Tejada%NULL%1,                             Alejandro%Martín%NULL%1,                             Goiatz%Balziskueta%NULL%1,                             Cristina%Vinuesa%NULL%1,                             Borja%Fernández-Miret%NULL%1,                             Ana%Villagra%NULL%1,                             Ana%Vallejo%NULL%1,                             Ana%San Sebastián%NULL%1,                             Sara%Cabañes%NULL%1,                             Sebastián%Iribarren%NULL%1,                             Fernando%Fonseca%NULL%1,                             Javier%Maynar%NULL%1,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,                             Denise J%McCulloch%NULL%2,                             Denise J%McCulloch%NULL%0,                             Vidya%Atluri%NULL%1,                             Michela%Blain%NULL%1,                             Sarah A%McGuffin%NULL%1,                             Arun K%Nalla%NULL%1,                             Meei-Li%Huang%NULL%1,                             Alex L%Greninger%NULL%1,                             Keith R%Jerome%NULL%1,                             Seth A%Cohen%NULL%1,                             Santiago%Neme%NULL%1,                             Margaret L%Green%NULL%1,                             Helen Y%Chu%NULL%1,                             H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Buetti%NULL%1,                             Timothy%Mazzuchelli%NULL%1,                             Elia%Lo Priore%NULL%1,                             Carlo%Balmelli%NULL%1,                             Michael%Llamas%NULL%1,                             Micol%Pallanza%NULL%1,                             Luigia%Elzi%NULL%1,                             Vera%Consonni%NULL%1,                             Pierpaolo%Trimboli%NULL%1,                             Valentina%Forni-Ogna%NULL%1,                             Enos%Bernasconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bin%Cao%NULL%1,                             Yeming%Wang%NULL%0,                             Danning%Wen%NULL%1,                             Wen%Liu%NULL%1,                             Jingli%Wang%NULL%0,                             Guohui%Fan%NULL%0,                             Lianguo%Ruan%NULL%1,                             Bin%Song%NULL%0,                             Yanping%Cai%NULL%1,                             Ming%Wei%NULL%1,                             Xingwang%Li%NULL%0,                             Jiaan%Xia%NULL%0,                             Nanshan%Chen%NULL%1,                             Jie%Xiang%NULL%0,                             Ting%Yu%NULL%0,                             Tao%Bai%NULL%0,                             Xuelei%Xie%NULL%0,                             Li%Zhang%NULL%0,                             Caihong%Li%NULL%1,                             Ye%Yuan%NULL%1,                             Hua%Chen%NULL%0,                             Huadong%Li%NULL%1,                             Hanping%Huang%NULL%1,                             Shengjing%Tu%NULL%1,                             Fengyun%Gong%NULL%0,                             Ying%Liu%NULL%0,                             Yuan%Wei%NULL%0,                             Chongya%Dong%NULL%1,                             Fei%Zhou%NULL%1,                             Xiaoying%Gu%NULL%0,                             Jiuyang%Xu%NULL%0,                             Zhibo%Liu%NULL%0,                             Yi%Zhang%NULL%0,                             Hui%Li%NULL%0,                             Lianhan%Shang%NULL%1,                             Ke%Wang%NULL%0,                             Kunxia%Li%NULL%1,                             Xia%Zhou%NULL%1,                             Xuan%Dong%NULL%0,                             Zhaohui%Qu%NULL%1,                             Sixia%Lu%NULL%1,                             Xujuan%Hu%NULL%1,                             Shunan%Ruan%NULL%1,                             Shanshan%Luo%NULL%1,                             Jing%Wu%NULL%0,                             Lu%Peng%NULL%1,                             Fang%Cheng%NULL%0,                             Lihong%Pan%NULL%1,                             Jun%Zou%NULL%1,                             Chunmin%Jia%NULL%1,                             Juan%Wang%NULL%1,                             Xia%Liu%NULL%1,                             Shuzhen%Wang%NULL%1,                             Xudong%Wu%NULL%0,                             Qin%Ge%NULL%1,                             Jing%He%NULL%1,                             Haiyan%Zhan%NULL%1,                             Fang%Qiu%NULL%1,                             Li%Guo%NULL%0,                             Chaolin%Huang%NULL%1,                             Thomas%Jaki%NULL%1,                             Frederick G.%Hayden%NULL%1,                             Peter W.%Horby%NULL%1,                             Dingyu%Zhang%NULL%1,                             Chen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                             Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                             Wenlin%Cheng%NULL%0,                             Lei%Yu%NULL%0,                             Ya-Kun%Liu%NULL%0,                             Xiaoyong%Hu%NULL%0,                             Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Cao%NULL%1,                             Jia%Wei%NULL%1,                             Liang%Zou%NULL%1,                             Tiebin%Jiang%NULL%1,                             Gaoxiang%Wang%NULL%1,                             Liting%Chen%NULL%1,                             Liang%Huang%NULL%1,                             Fankai%Meng%NULL%1,                             Lifang%Huang%NULL%1,                             Na%Wang%NULL%1,                             Xiaoxi%Zhou%NULL%1,                             Hui%Luo%NULL%1,                             Zekai%Mao%NULL%1,                             Xing%Chen%NULL%1,                             Jungang%Xie%NULL%0,                             Jing%Liu%NULL%0,                             Hui%Cheng%NULL%1,                             Jianping%Zhao%NULL%0,                             Gang%Huang%NULL%1,                             Wei%Wang%NULL%0,                             Jianfeng%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giulio%Cavalli%cavalli.giulio@hsr.it%1,                             Giacomo%De Luca%NULL%1,                             Corrado%Campochiaro%NULL%1,                             Emanuel%Della-Torre%NULL%1,                             Marco%Ripa%NULL%1,                             Diana%Canetti%NULL%1,                             Chiara%Oltolini%NULL%1,                             Barbara%Castiglioni%NULL%1,                             Chiara%Tassan Din%NULL%1,                             Nicola%Boffini%NULL%1,                             Alessandro%Tomelleri%NULL%1,                             Nicola%Farina%NULL%1,                             Annalisa%Ruggeri%NULL%0,                             Patrizia%Rovere-Querini%NULL%0,                             Giuseppe%Di Lucca%NULL%1,                             Sabina%Martinenghi%NULL%1,                             Raffaella%Scotti%NULL%1,                             Moreno%Tresoldi%NULL%0,                             Fabio%Ciceri%NULL%1,                             Giovanni%Landoni%NULL%0,                             Alberto%Zangrillo%NULL%0,                             Paolo%Scarpellini%NULL%0,                             Lorenzo%Dagna%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerry Y.%Chao%NULL%1,                             Kim R.%Derespina%NULL%2,                             Betsy C.%Herold%NULL%1,                             David L.%Goldman%NULL%1,                             Margaret%Aldrich%NULL%1,                             Jacqueline%Weingarten%NULL%1,                             Henry M.%Ushay%NULL%2,                             Michael D.%Cabana%NULL%1,                             Shivanand S.%Medar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                             Di%Wu%NULL%0,                             Huilong%Chen%NULL%0,                             Weiming%Yan%NULL%0,                             Danlei%Yang%NULL%0,                             Guang%Chen%NULL%0,                             Ke%Ma%NULL%0,                             Dong%Xu%NULL%0,                             Haijing%Yu%NULL%0,                             Hongwu%Wang%NULL%0,                             Tao%Wang%NULL%0,                             Wei%Guo%NULL%0,                             Jia%Chen%NULL%0,                             Chen%Ding%NULL%0,                             Xiaoping%Zhang%NULL%0,                             Jiaquan%Huang%NULL%0,                             Meifang%Han%NULL%0,                             Shusheng%Li%NULL%0,                             Xiaoping%Luo%NULL%0,                             Jianping%Zhao%NULL%0,                             Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Chen%NULL%1,                             Zhen-Zhen%Zhang%NULL%1,                             Yao-Kai%Chen%NULL%1,                             Quan-Xin%Long%NULL%1,                             Wen-Guang%Tian%NULL%1,                             Hai-Jun%Deng%NULL%1,                             Jie-Li%Hu%NULL%1,                             Xian-Xiang%Zhang%NULL%1,                             NULL%Pu-Liao%NULL%1,                             Jiang-Lin%Xiang%NULL%1,                             Dao-Xin%Wang%NULL%1,                             Peng%Hu%NULL%0,                             Fa-Chun%Zhou%NULL%1,                             Zhi-Jie%Li%NULL%1,                             Hong-Mei%Xu%NULL%1,                             Xue-Fei%Cai%NULL%1,                             De-Qiang%Wang%NULL%1,                             Yuan%Hu%NULL%1,                             Ni%Tang%NULL%1,                             Bei-Zhong%Liu%liubeizhong@cqmu.edu.cn%1,                             Gui-Cheng%Wu%wuguic@hotmail.com%1,                             Ai-Long%Huang%ahuang@cqmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                             Min%Zhou%NULL%0,                             Xuan%Dong%NULL%0,                             Jieming%Qu%NULL%0,                             Fengyun%Gong%NULL%0,                             Yang%Han%NULL%0,                             Yang%Qiu%NULL%0,                             Jingli%Wang%NULL%0,                             Ying%Liu%NULL%0,                             Yuan%Wei%NULL%0,                             Jia'an%Xia%NULL%0,                             Ting%Yu%NULL%0,                             Xinxin%Zhang%NULL%0,                             Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,                             Zhencang%Zheng%NULL%1,                             Chao%Zhang%NULL%1,                             Xijiang%Zhang%NULL%1,                             Huijuan%Wu%NULL%1,                             Jingdong%Wang%NULL%1,                             Shuwei%Wang%NULL%1,                             Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                             Wenhua%Liang%NULL%0,                             Mei%Jiang%NULL%0,                             Weijie%Guan%NULL%0,                             Chen%Zhan%NULL%0,                             Tao%Wang%NULL%0,                             Chunli%Tang%NULL%0,                             Ling%Sang%NULL%0,                             Jiaxing%Liu%NULL%0,                             Zhengyi%Ni%NULL%0,                             Yu%Hu%NULL%0,                             Lei%Liu%NULL%0,                             Hong%Shan%NULL%0,                             Chunliang%Lei%NULL%0,                             Yixiang%Peng%NULL%0,                             Li%Wei%NULL%0,                             Yong%Liu%NULL%0,                             Yahua%Hu%NULL%0,                             Peng%Peng%NULL%0,                             Jianming%Wang%NULL%0,                             Jiyang%Liu%NULL%0,                             Zhong%Chen%NULL%0,                             Gang%Li%NULL%0,                             Zhijian%Zheng%NULL%0,                             Shaoqin%Qiu%NULL%0,                             Jie%Luo%NULL%0,                             Changjiang%Ye%NULL%0,                             Shaoyong%Zhu%NULL%0,                             Xiaoqing%Liu%NULL%0,                             Linling%Cheng%NULL%0,                             Feng%Ye%NULL%0,                             Jinping%Zheng%NULL%0,                             Nuofu%Zhang%NULL%0,                             Yimin%Li%NULL%0,                             Jianxing%He%NULL%0,                             Shiyue%Li%lishiyue@188.com%0,                             Nanshan%Zhong%NULL%0,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min%Chen%NULL%1,                             Wei%An%NULL%2,                             Wei%An%NULL%0,                             Fei%Xia%NULL%0,                             Ping%Yang%NULL%1,                             Kuangyu%Li%NULL%1,                             Qin%Zhou%NULL%1,                             Shasha%Fang%NULL%1,                             Yaling%Liao%NULL%1,                             Xin%Xu%NULL%0,                             Jialin%Liu%NULL%1,                             Shiguo%Liu%NULL%1,                             Tao%Qin%NULL%1,                             Jianjun%Zhang%NULL%1,                             Wei%Wei%NULL%0,                             Yafang%Zhang%NULL%1,                             Guowei%Zhang%NULL%1,                             Mingwei%Zhang%383193522@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,                             Nan%Yang%NULL%2,                             Nan%Yang%NULL%0,                             Yanqiu%Wei%NULL%1,                             Huihui%Yue%NULL%1,                             Fengqin%Zhang%NULL%1,                             Jianping%Zhao%NULL%0,                             Li%He%NULL%1,                             Gaohong%Sheng%NULL%2,                             Gaohong%Sheng%NULL%0,                             Peng%Chen%NULL%1,                             Gang%Li%NULL%0,                             Sisi%Wu%NULL%1,                             Bo%Zhang%NULL%0,                             Shu%Zhang%szhang@tjh.tjmu.edu.cn%1,                             Congyi%Wang%wangcy@tjh.tjmu.edu.cn%1,                             Xiaoping%Miao%miaoxp@hust.edu.cn%1,                             Juan%Li%lijuan@tjh.tjmu.edu.cn%0,                             Wenhua%Liu%liuwh_2013@126.com%1,                             Huilan%Zhang%huilanz_76@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Cosgriff%NULL%1,                             Susannah%Ahern%NULL%1,                             Scott C.%Bell%NULL%1,                             Keith%Brownlee%NULL%1,                             Pierre-Régis%Burgel%NULL%1,                             Cass%Byrnes%NULL%1,                             Harriet%Corvol%NULL%1,                             Stephanie Y.%Cheng%NULL%1,                             Alexander%Elbert%NULL%1,                             Albert%Faro%NULL%1,                             Christopher H.%Goss%NULL%1,                             Vincent%Gulmans%NULL%1,                             Bruce C.%Marshall%NULL%1,                             Edward%McKone%NULL%1,                             Peter G.%Middleton%NULL%1,                             Rasa%Ruseckaite%NULL%1,                             Anne L.%Stephenson%NULL%1,                             Siobhán B%Carr%NULL%1,                             David%Reid%NULL%1,                             Peter%Wark%NULL%1,                             Géraldine%Daneau%NULL%1,                             Véronique%Boussaud%NULL%1,                             Graziella%Brinchault%NULL%1,                             Emmanuelle%Coirier-Duet%NULL%1,                             Jean-Christophe%Dubus%NULL%1,                             Dominique%Grenet%NULL%1,                             Sandra de%Miranda%NULL%1,                             Laurence%Beaumont%NULL%1,                             Reem%Kanaan%NULL%1,                             Muriel%Lauraens%NULL%1,                             Clémence%Martin%NULL%1,                             Marie%Mittaine%NULL%1,                             Anne%Prévotat%NULL%1,                             Martine%Reynaud-Gaubert%NULL%1,                             Isabelle%Sermet-Gaudelus%NULL%1,                             Aurelie%Tatopoulos%NULL%1,                             Lutz%Nährlich%NULL%1,                             Barry%Plant%NULL%1,                             Cedric%Gunaratnam%NULL%1,                             Abaigeal%Jackson%NULL%1,                             Karin M. de Winter-de%Groot%NULL%1,                             Bart%Luijk%NULL%1,                             Geertjan%Wesseling%NULL%1,                             Mark%Allenby%NULL%1,                             Jamie%Duckers%NULL%1,                             Elaine%Gunn%NULL%1,                             Andrew%Jones%NULL%1,                             Robert Ian%Ketchell%NULL%1,                             Susan L.%Madge%NULL%1,                             Anirban%Maitra%NULL%1,                             Ghulam%Mujtaba%NULL%1,                             Helen%Rodgers%NULL%1,                             Nadia%Shafi%NULL%1,                             Nicholas%Simmonds%NULL%1,                             Kevin%Southern%NULL%1,                             Danie%Watson%NULL%1,                             Samar%Rizvi%NULL%1,                             Julie%Seguin%NULL%1,                             Janet%Garbarz%NULL%1,                             Kristen%Rosamilia%NULL%1,                             Maria%Berdella%NULL%1,                             Jerry A.%Nick%NULL%1,                             Richard%Belkin%NULL%1,                             Diana%Gilmore%NULL%1,                             Kim%McBennett%NULL%1,                             Rita%Padoan%NULL%1,                             Marco%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%0,                             Matthew R%Baldwin%NULL%0,                             Darryl%Abrams%NULL%1,                             Samuel D%Jacobson%NULL%1,                             Benjamin J%Meyer%NULL%1,                             Elizabeth M%Balough%NULL%1,                             Justin G%Aaron%NULL%1,                             Jan%Claassen%NULL%0,                             LeRoy E%Rabbani%NULL%1,                             Jonathan%Hastie%NULL%1,                             Beth R%Hochman%NULL%1,                             John%Salazar-Schicchi%NULL%1,                             Natalie H%Yip%NULL%1,                             Daniel%Brodie%NULL%0,                             Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Dai%NULL%1,                             Xin%Zhang%NULL%0,                             Jianguo%Xia%NULL%1,                             Tao%Zhang%NULL%1,                             Yalei%Shang%NULL%1,                             Renjun%Huang%NULL%1,                             Rongrong%Liu%NULL%1,                             Dan%Wang%NULL%0,                             Min%Li%105549156@qq.com%1,                             Jinping%Wu%czwjp@sina.com%1,                             Qiuzhen%Xu%xuqiuzhen831@sina.com%1,                             Yonggang%Li%liyonggang224@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Alireza%Abrishami%NULL%1,                              Shiva%Samavat%NULL%1,                              Behdad%Behnam%NULL%1,                              Mehran%Arab-Ahmadi%NULL%1,                              Mohsen%Nafar%NULL%1,                              Morteza%Sanei Taheri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%NULL%2,                              Elisa%Delbarba%NULL%2,                              Chiara%Manenti%NULL%2,                              Laura%Econimo%NULL%2,                              Francesca%Valerio%NULL%2,                              Alessandra%Pola%NULL%2,                              Camilla%Maffei%NULL%2,                              Stefano%Possenti%NULL%2,                              Nicole%Zambetti%NULL%1,                              Marianna%Moscato%NULL%1,                              Margherita%Venturini%NULL%1,                              Stefania%Affatato%NULL%2,                              Mario%Gaggiotti%NULL%2,                              Nicola%Bossini%NULL%2,                              Francesco%Scolari%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%federico.alberici@unibs.it%0,                              Elisa%Delbarba%NULL%0,                              Chiara%Manenti%NULL%0,                              Laura%Econimo%NULL%0,                              Francesca%Valerio%NULL%0,                              Alessandra%Pola%NULL%0,                              Camilla%Maffei%NULL%0,                              Stefano%Possenti%NULL%0,                              Bernardo%Lucca%NULL%1,                              Roberta%Cortinovis%NULL%1,                              Vincenzo%Terlizzi%NULL%1,                              Mattia%Zappa%NULL%1,                              Chiara%Saccà%NULL%1,                              Elena%Pezzini%NULL%1,                              Eleonora%Calcaterra%NULL%1,                              Paola%Piarulli%NULL%1,                              Alice%Guerini%NULL%1,                              Francesca%Boni%NULL%1,                              Agnese%Gallico%NULL%1,                              Alberto%Mucchetti%NULL%1,                              Stefania%Affatato%NULL%0,                              Sergio%Bove%NULL%1,                              Martina%Bracchi%NULL%1,                              Ester Maria%Costantino%NULL%1,                              Roberto%Zubani%NULL%1,                              Corrado%Camerini%NULL%1,                              Paola%Gaggia%NULL%1,                              Ezio%Movilli%NULL%1,                              Nicola%Bossini%NULL%0,                              Mario%Gaggiotti%NULL%0,                              Francesco%Scolari%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%0,                              Jordi%Rello%NULL%1,                              Sofia%Tejada%NULL%1,                              Alejandro%Martín%NULL%1,                              Goiatz%Balziskueta%NULL%1,                              Cristina%Vinuesa%NULL%1,                              Borja%Fernández-Miret%NULL%1,                              Ana%Villagra%NULL%1,                              Ana%Vallejo%NULL%1,                              Ana%San Sebastián%NULL%1,                              Sara%Cabañes%NULL%1,                              Sebastián%Iribarren%NULL%1,                              Fernando%Fonseca%NULL%1,                              Javier%Maynar%NULL%1,                              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,                              Denise J%McCulloch%NULL%2,                              Denise J%McCulloch%NULL%0,                              Vidya%Atluri%NULL%1,                              Michela%Blain%NULL%1,                              Sarah A%McGuffin%NULL%1,                              Arun K%Nalla%NULL%1,                              Meei-Li%Huang%NULL%1,                              Alex L%Greninger%NULL%1,                              Keith R%Jerome%NULL%1,                              Seth A%Cohen%NULL%1,                              Santiago%Neme%NULL%1,                              Margaret L%Green%NULL%1,                              Helen Y%Chu%NULL%1,                              H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Buetti%NULL%1,                              Timothy%Mazzuchelli%NULL%1,                              Elia%Lo Priore%NULL%1,                              Carlo%Balmelli%NULL%1,                              Michael%Llamas%NULL%1,                              Micol%Pallanza%NULL%1,                              Luigia%Elzi%NULL%1,                              Vera%Consonni%NULL%1,                              Pierpaolo%Trimboli%NULL%1,                              Valentina%Forni-Ogna%NULL%1,                              Enos%Bernasconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bin%Cao%NULL%1,                              Yeming%Wang%NULL%0,                              Danning%Wen%NULL%1,                              Wen%Liu%NULL%1,                              Jingli%Wang%NULL%0,                              Guohui%Fan%NULL%0,                              Lianguo%Ruan%NULL%1,                              Bin%Song%NULL%0,                              Yanping%Cai%NULL%1,                              Ming%Wei%NULL%1,                              Xingwang%Li%NULL%0,                              Jiaan%Xia%NULL%0,                              Nanshan%Chen%NULL%1,                              Jie%Xiang%NULL%0,                              Ting%Yu%NULL%0,                              Tao%Bai%NULL%0,                              Xuelei%Xie%NULL%0,                              Li%Zhang%NULL%0,                              Caihong%Li%NULL%1,                              Ye%Yuan%NULL%1,                              Hua%Chen%NULL%0,                              Huadong%Li%NULL%1,                              Hanping%Huang%NULL%1,                              Shengjing%Tu%NULL%1,                              Fengyun%Gong%NULL%0,                              Ying%Liu%NULL%0,                              Yuan%Wei%NULL%0,                              Chongya%Dong%NULL%1,                              Fei%Zhou%NULL%1,                              Xiaoying%Gu%NULL%0,                              Jiuyang%Xu%NULL%0,                              Zhibo%Liu%NULL%0,                              Yi%Zhang%NULL%0,                              Hui%Li%NULL%0,                              Lianhan%Shang%NULL%1,                              Ke%Wang%NULL%0,                              Kunxia%Li%NULL%1,                              Xia%Zhou%NULL%1,                              Xuan%Dong%NULL%0,                              Zhaohui%Qu%NULL%1,                              Sixia%Lu%NULL%1,                              Xujuan%Hu%NULL%1,                              Shunan%Ruan%NULL%1,                              Shanshan%Luo%NULL%1,                              Jing%Wu%NULL%0,                              Lu%Peng%NULL%1,                              Fang%Cheng%NULL%0,                              Lihong%Pan%NULL%1,                              Jun%Zou%NULL%1,                              Chunmin%Jia%NULL%1,                              Juan%Wang%NULL%1,                              Xia%Liu%NULL%1,                              Shuzhen%Wang%NULL%1,                              Xudong%Wu%NULL%0,                              Qin%Ge%NULL%1,                              Jing%He%NULL%1,                              Haiyan%Zhan%NULL%1,                              Fang%Qiu%NULL%1,                              Li%Guo%NULL%0,                              Chaolin%Huang%NULL%1,                              Thomas%Jaki%NULL%1,                              Frederick G.%Hayden%NULL%1,                              Peter W.%Horby%NULL%1,                              Dingyu%Zhang%NULL%1,                              Chen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                              Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                              Wenlin%Cheng%NULL%0,                              Lei%Yu%NULL%0,                              Ya-Kun%Liu%NULL%0,                              Xiaoyong%Hu%NULL%0,                              Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Cao%NULL%1,                              Jia%Wei%NULL%1,                              Liang%Zou%NULL%1,                              Tiebin%Jiang%NULL%1,                              Gaoxiang%Wang%NULL%1,                              Liting%Chen%NULL%1,                              Liang%Huang%NULL%1,                              Fankai%Meng%NULL%1,                              Lifang%Huang%NULL%1,                              Na%Wang%NULL%1,                              Xiaoxi%Zhou%NULL%1,                              Hui%Luo%NULL%1,                              Zekai%Mao%NULL%1,                              Xing%Chen%NULL%1,                              Jungang%Xie%NULL%0,                              Jing%Liu%NULL%0,                              Hui%Cheng%NULL%1,                              Jianping%Zhao%NULL%0,                              Gang%Huang%NULL%1,                              Wei%Wang%NULL%0,                              Jianfeng%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giulio%Cavalli%cavalli.giulio@hsr.it%1,                              Giacomo%De Luca%NULL%1,                              Corrado%Campochiaro%NULL%1,                              Emanuel%Della-Torre%NULL%1,                              Marco%Ripa%NULL%1,                              Diana%Canetti%NULL%1,                              Chiara%Oltolini%NULL%1,                              Barbara%Castiglioni%NULL%1,                              Chiara%Tassan Din%NULL%1,                              Nicola%Boffini%NULL%1,                              Alessandro%Tomelleri%NULL%1,                              Nicola%Farina%NULL%1,                              Annalisa%Ruggeri%NULL%0,                              Patrizia%Rovere-Querini%NULL%0,                              Giuseppe%Di Lucca%NULL%1,                              Sabina%Martinenghi%NULL%1,                              Raffaella%Scotti%NULL%1,                              Moreno%Tresoldi%NULL%0,                              Fabio%Ciceri%NULL%1,                              Giovanni%Landoni%NULL%0,                              Alberto%Zangrillo%NULL%0,                              Paolo%Scarpellini%NULL%0,                              Lorenzo%Dagna%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerry Y.%Chao%NULL%1,                              Kim R.%Derespina%NULL%2,                              Betsy C.%Herold%NULL%1,                              David L.%Goldman%NULL%1,                              Margaret%Aldrich%NULL%1,                              Jacqueline%Weingarten%NULL%1,                              Henry M.%Ushay%NULL%2,                              Michael D.%Cabana%NULL%1,                              Shivanand S.%Medar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                              Di%Wu%NULL%0,                              Huilong%Chen%NULL%0,                              Weiming%Yan%NULL%0,                              Danlei%Yang%NULL%0,                              Guang%Chen%NULL%0,                              Ke%Ma%NULL%0,                              Dong%Xu%NULL%0,                              Haijing%Yu%NULL%0,                              Hongwu%Wang%NULL%0,                              Tao%Wang%NULL%0,                              Wei%Guo%NULL%0,                              Jia%Chen%NULL%0,                              Chen%Ding%NULL%0,                              Xiaoping%Zhang%NULL%0,                              Jiaquan%Huang%NULL%0,                              Meifang%Han%NULL%0,                              Shusheng%Li%NULL%0,                              Xiaoping%Luo%NULL%0,                              Jianping%Zhao%NULL%0,                              Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Chen%NULL%1,                              Zhen-Zhen%Zhang%NULL%1,                              Yao-Kai%Chen%NULL%1,                              Quan-Xin%Long%NULL%1,                              Wen-Guang%Tian%NULL%1,                              Hai-Jun%Deng%NULL%1,                              Jie-Li%Hu%NULL%1,                              Xian-Xiang%Zhang%NULL%1,                              NULL%Pu-Liao%NULL%1,                              Jiang-Lin%Xiang%NULL%1,                              Dao-Xin%Wang%NULL%1,                              Peng%Hu%NULL%0,                              Fa-Chun%Zhou%NULL%1,                              Zhi-Jie%Li%NULL%1,                              Hong-Mei%Xu%NULL%1,                              Xue-Fei%Cai%NULL%1,                              De-Qiang%Wang%NULL%1,                              Yuan%Hu%NULL%1,                              Ni%Tang%NULL%1,                              Bei-Zhong%Liu%liubeizhong@cqmu.edu.cn%1,                              Gui-Cheng%Wu%wuguic@hotmail.com%1,                              Ai-Long%Huang%ahuang@cqmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                              Min%Zhou%NULL%0,                              Xuan%Dong%NULL%0,                              Jieming%Qu%NULL%0,                              Fengyun%Gong%NULL%0,                              Yang%Han%NULL%0,                              Yang%Qiu%NULL%0,                              Jingli%Wang%NULL%0,                              Ying%Liu%NULL%0,                              Yuan%Wei%NULL%0,                              Jia'an%Xia%NULL%0,                              Ting%Yu%NULL%0,                              Xinxin%Zhang%NULL%0,                              Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,                              Zhencang%Zheng%NULL%1,                              Chao%Zhang%NULL%1,                              Xijiang%Zhang%NULL%1,                              Huijuan%Wu%NULL%1,                              Jingdong%Wang%NULL%1,                              Shuwei%Wang%NULL%1,                              Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                              Wenhua%Liang%NULL%0,                              Mei%Jiang%NULL%0,                              Weijie%Guan%NULL%0,                              Chen%Zhan%NULL%0,                              Tao%Wang%NULL%0,                              Chunli%Tang%NULL%0,                              Ling%Sang%NULL%0,                              Jiaxing%Liu%NULL%0,                              Zhengyi%Ni%NULL%0,                              Yu%Hu%NULL%0,                              Lei%Liu%NULL%0,                              Hong%Shan%NULL%0,                              Chunliang%Lei%NULL%0,                              Yixiang%Peng%NULL%0,                              Li%Wei%NULL%0,                              Yong%Liu%NULL%0,                              Yahua%Hu%NULL%0,                              Peng%Peng%NULL%0,                              Jianming%Wang%NULL%0,                              Jiyang%Liu%NULL%0,                              Zhong%Chen%NULL%0,                              Gang%Li%NULL%0,                              Zhijian%Zheng%NULL%0,                              Shaoqin%Qiu%NULL%0,                              Jie%Luo%NULL%0,                              Changjiang%Ye%NULL%0,                              Shaoyong%Zhu%NULL%0,                              Xiaoqing%Liu%NULL%0,                              Linling%Cheng%NULL%0,                              Feng%Ye%NULL%0,                              Jinping%Zheng%NULL%0,                              Nuofu%Zhang%NULL%0,                              Yimin%Li%NULL%0,                              Jianxing%He%NULL%0,                              Shiyue%Li%lishiyue@188.com%0,                              Nanshan%Zhong%NULL%0,                              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min%Chen%NULL%1,                              Wei%An%NULL%2,                              Wei%An%NULL%0,                              Fei%Xia%NULL%0,                              Ping%Yang%NULL%1,                              Kuangyu%Li%NULL%1,                              Qin%Zhou%NULL%1,                              Shasha%Fang%NULL%1,                              Yaling%Liao%NULL%1,                              Xin%Xu%NULL%0,                              Jialin%Liu%NULL%1,                              Shiguo%Liu%NULL%1,                              Tao%Qin%NULL%1,                              Jianjun%Zhang%NULL%1,                              Wei%Wei%NULL%0,                              Yafang%Zhang%NULL%1,                              Guowei%Zhang%NULL%1,                              Mingwei%Zhang%383193522@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,                              Nan%Yang%NULL%2,                              Nan%Yang%NULL%0,                              Yanqiu%Wei%NULL%1,                              Huihui%Yue%NULL%1,                              Fengqin%Zhang%NULL%1,                              Jianping%Zhao%NULL%0,                              Li%He%NULL%1,                              Gaohong%Sheng%NULL%2,                              Gaohong%Sheng%NULL%0,                              Peng%Chen%NULL%1,                              Gang%Li%NULL%0,                              Sisi%Wu%NULL%1,                              Bo%Zhang%NULL%0,                              Shu%Zhang%szhang@tjh.tjmu.edu.cn%1,                              Congyi%Wang%wangcy@tjh.tjmu.edu.cn%1,                              Xiaoping%Miao%miaoxp@hust.edu.cn%1,                              Juan%Li%lijuan@tjh.tjmu.edu.cn%0,                              Wenhua%Liu%liuwh_2013@126.com%1,                              Huilan%Zhang%huilanz_76@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Cosgriff%NULL%1,                              Susannah%Ahern%NULL%1,                              Scott C.%Bell%NULL%1,                              Keith%Brownlee%NULL%1,                              Pierre-Régis%Burgel%NULL%1,                              Cass%Byrnes%NULL%1,                              Harriet%Corvol%NULL%1,                              Stephanie Y.%Cheng%NULL%1,                              Alexander%Elbert%NULL%1,                              Albert%Faro%NULL%1,                              Christopher H.%Goss%NULL%1,                              Vincent%Gulmans%NULL%1,                              Bruce C.%Marshall%NULL%1,                              Edward%McKone%NULL%1,                              Peter G.%Middleton%NULL%1,                              Rasa%Ruseckaite%NULL%1,                              Anne L.%Stephenson%NULL%1,                              Siobhán B%Carr%NULL%1,                              David%Reid%NULL%1,                              Peter%Wark%NULL%1,                              Géraldine%Daneau%NULL%1,                              Véronique%Boussaud%NULL%1,                              Graziella%Brinchault%NULL%1,                              Emmanuelle%Coirier-Duet%NULL%1,                              Jean-Christophe%Dubus%NULL%1,                              Dominique%Grenet%NULL%1,                              Sandra de%Miranda%NULL%1,                              Laurence%Beaumont%NULL%1,                              Reem%Kanaan%NULL%1,                              Muriel%Lauraens%NULL%1,                              Clémence%Martin%NULL%1,                              Marie%Mittaine%NULL%1,                              Anne%Prévotat%NULL%1,                              Martine%Reynaud-Gaubert%NULL%1,                              Isabelle%Sermet-Gaudelus%NULL%1,                              Aurelie%Tatopoulos%NULL%1,                              Lutz%Nährlich%NULL%1,                              Barry%Plant%NULL%1,                              Cedric%Gunaratnam%NULL%1,                              Abaigeal%Jackson%NULL%1,                              Karin M. de Winter-de%Groot%NULL%1,                              Bart%Luijk%NULL%1,                              Geertjan%Wesseling%NULL%1,                              Mark%Allenby%NULL%1,                              Jamie%Duckers%NULL%1,                              Elaine%Gunn%NULL%1,                              Andrew%Jones%NULL%1,                              Robert Ian%Ketchell%NULL%1,                              Susan L.%Madge%NULL%1,                              Anirban%Maitra%NULL%1,                              Ghulam%Mujtaba%NULL%1,                              Helen%Rodgers%NULL%1,                              Nadia%Shafi%NULL%1,                              Nicholas%Simmonds%NULL%1,                              Kevin%Southern%NULL%1,                              Danie%Watson%NULL%1,                              Samar%Rizvi%NULL%1,                              Julie%Seguin%NULL%1,                              Janet%Garbarz%NULL%1,                              Kristen%Rosamilia%NULL%1,                              Maria%Berdella%NULL%1,                              Jerry A.%Nick%NULL%1,                              Richard%Belkin%NULL%1,                              Diana%Gilmore%NULL%1,                              Kim%McBennett%NULL%1,                              Rita%Padoan%NULL%1,                              Marco%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%0,                              Matthew R%Baldwin%NULL%0,                              Darryl%Abrams%NULL%1,                              Samuel D%Jacobson%NULL%1,                              Benjamin J%Meyer%NULL%1,                              Elizabeth M%Balough%NULL%1,                              Justin G%Aaron%NULL%1,                              Jan%Claassen%NULL%0,                              LeRoy E%Rabbani%NULL%1,                              Jonathan%Hastie%NULL%1,                              Beth R%Hochman%NULL%1,                              John%Salazar-Schicchi%NULL%1,                              Natalie H%Yip%NULL%1,                              Daniel%Brodie%NULL%0,                              Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Dai%NULL%1,                              Xin%Zhang%NULL%0,                              Jianguo%Xia%NULL%1,                              Tao%Zhang%NULL%1,                              Yalei%Shang%NULL%1,                              Renjun%Huang%NULL%1,                              Rongrong%Liu%NULL%1,                              Dan%Wang%NULL%0,                              Min%Li%105549156@qq.com%1,                              Jinping%Wu%czwjp@sina.com%1,                              Qiuzhen%Xu%xuqiuzhen831@sina.com%1,                              Yonggang%Li%liyonggang224@163.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coronavirus disease 2019 (COVID-19) is a novel and highly contagious disease caused by Severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2).
+ Older adults and patients with comorbidities and immunosuppressive conditions may experience severe signs and symptoms that can lead to death.
+ This case series assesses the clinical course, imaging features, and outcomes for 12 patients with COVID-19 and a history of kidney transplantation.
+ Patients were evaluated for symptoms, laboratory data, imaging findings, and outcomes from February 2020 to April 2020. Fever, cough, and dyspnea were the most common clinical symptoms, noted in 75% (nine/12), 75% (nine/12), and 41.7% (five/12) of the patients, respectively.
+ Most of the patients had a normal white blood cell count, while 33.3% (four/12) had leukopenia and 8.3% (one/12) had leukocytosis.
+ A combination of consolidation and ground glass opacity was the most predominant (75%) pattern of lung involvement on computed tomography (CT).
+ Eight patients died of severe COVID-19 pneumonia and acute respiratory distress syndrome and four were discharged.
+ All recovered cases had a unilateral peripheral pattern of involvement limited to only one zone on initial chest CT.
+ It seems that CT imaging has an important role in predicting COVID-19 outcomes for solid organ transplant recipients.
+ Future studies with long-term follow up and more cases are needed to elucidate COVID-19 diagnosis, outcome, and management strategies for these patients.
+</t>
+  </si>
+  <si>
+    <t>[Alireza%Abrishami%NULL%0, Shiva%Samavat%NULL%1, Behdad%Behnam%NULL%1, Mehran%Arab-Ahmadi%NULL%1, Mohsen%Nafar%NULL%1, Morteza%Sanei Taheri%NULL%1]</t>
+  </si>
+  <si>
+    <t>European Association of Urology. Published by Elsevier B.V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The outcome of SARS-CoV2 infection in patients who have received a kidney allograft and are being treated with immunosuppression is unclear.
+ We describe 20 kidney transplant recipients (median age 59 years [inter quartile range 51-64 years], median age of transplant 13 years [9-20 years], baseline eGFR 36.5 [23-47.5]) with SARS-CoV2 induced pneumonia.
+ At admission, all had immunosuppression withdrawn and were started on methylprednisolone 16 mg/day, all but one was commenced on antiviral therapy and hydroxychloroquine with doses adjusted for kidney function.
+ At baseline, all patients presented fever but only one complained of difficulty in breathing.
+ Half of patients showed chest radiographic evidence of bilateral infiltrates while the other half showed unilateral changes or no infiltrates.
+ During a median follow-up of seven days, 87% experienced a radiological progression and among those 73% required escalation of oxygen therapy.
+ Six patients developed acute kidney injury with one requiring hemodialysis.
+ Six of 12 patients were treated with tocilizumab, a humanized monoclonal antibody to the IL-6 receptor.
+ Overall, five kidney transplant recipients died after a median period of 15 days [15-19] from symptom onset.
+ These preliminary findings describe a rapid clinical deterioration associated with chest radiographic deterioration and escalating oxygen requirement in renal transplant recipients with SARS-Cov2 pneumonia.
+ Thus, in this limited cohort of long-term kidney transplant patients, SARS-CoV-2 induced pneumonia is characterized by high risk of progression and significant mortality.
+</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%NULL%0, Elisa%Delbarba%NULL%2, Chiara%Manenti%NULL%2, Laura%Econimo%NULL%2, Francesca%Valerio%NULL%2, Alessandra%Pola%NULL%2, Camilla%Maffei%NULL%2, Stefano%Possenti%NULL%2, Nicole%Zambetti%NULL%1, Marianna%Moscato%NULL%1, Margherita%Venturini%NULL%1, Stefania%Affatato%NULL%2, Mario%Gaggiotti%NULL%2, Nicola%Bossini%NULL%2, Francesco%Scolari%NULL%2]</t>
+  </si>
+  <si>
+    <t>The Authors. Published by Elsevier Inc. on behalf of the International Society of Nephrology.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The SARS-CoV-2 epidemic is pressuring healthcare systems worldwide.
+ Disease outcomes in certain subgroups of patients are still scarce, and data are needed.
+ Therefore, we describe here the experience of four dialysis centers of the Brescia Renal COVID Task Force.
+ During March 2020, within an overall population of 643 hemodialysis patients, SARS-CoV-2 RNA positivity was detected in 94 (15%).
+ At disease diagnosis, 37 of the 94 (39%) patients (group 1) were managed on an outpatient basis, whereas the remaining 57 (61%) (group 2) required hospitalization.
+ Choices regarding management strategy were made based on disease severity.
+ In group 1, 41% received antivirals and 76% hydroxychloroquine.
+ Eight percent died and 5% developed acute respiratory distress syndrome (ARDS).
+ In group 2, 79% received antivirals and 77% hydroxychloroquine.
+ Forty two percent died and 79% developed ARDS.
+ Overall mortality rate for the entire cohort was 29%.
+ History of ischemic cardiac disease, fever, older age (over age 70), and dyspnea at presentation were associated with the risk of developing ARDS, whereas fever, cough and a C-reactive protein higher than 50 mg/l at disease presentation were associated with the risk of death.
+ Thus, in our population of hemodialysis patients with SARS-CoV-2 infection, we documented a wide range of disease severity.
+ The risk of ARDS and death is significant for patients requiring hospital admission at disease diagnosis.
+</t>
+  </si>
+  <si>
+    <t>International Society of Nephrology. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%0, Jordi%Rello%NULL%0, Sofia%Tejada%NULL%0, Alejandro%Martín%NULL%0, Goiatz%Balziskueta%NULL%0, Cristina%Vinuesa%NULL%0, Borja%Fernández-Miret%NULL%0, Ana%Villagra%NULL%0, Ana%Vallejo%NULL%0, Ana%San Sebastián%NULL%0, Sara%Cabañes%NULL%0, Sebastián%Iribarren%NULL%0, Fernando%Fonseca%NULL%0, Javier%Maynar%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>Société française d'anesthésie et de réanimation (Sfar). Published by Elsevier Masson SAS.</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0, Denise J%McCulloch%NULL%0, Denise J%McCulloch%NULL%0, Vidya%Atluri%NULL%0, Michela%Blain%NULL%0, Sarah A%McGuffin%NULL%0, Arun K%Nalla%NULL%0, Meei-Li%Huang%NULL%0, Alex L%Greninger%NULL%0, Keith R%Jerome%NULL%0, Seth A%Cohen%NULL%0, Santiago%Neme%NULL%0, Margaret L%Green%NULL%0, Helen Y%Chu%NULL%0, H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[Niccolò%Buetti%NULL%0, Timothy%Mazzuchelli%NULL%1, Elia%Lo Priore%NULL%1, Carlo%Balmelli%NULL%1, Michael%Llamas%NULL%1, Micol%Pallanza%NULL%1, Luigia%Elzi%NULL%1, Vera%Consonni%NULL%1, Pierpaolo%Trimboli%NULL%1, Valentina%Forni-Ogna%NULL%1, Enos%Bernasconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>The British Infection Association. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Bin%Cao%NULL%0, Yeming%Wang%NULL%0, Danning%Wen%NULL%1, Wen%Liu%NULL%1, Jingli%Wang%NULL%0, Guohui%Fan%NULL%0, Lianguo%Ruan%NULL%0, Bin%Song%NULL%0, Yanping%Cai%NULL%1, Ming%Wei%NULL%1, Xingwang%Li%NULL%0, Jiaan%Xia%NULL%0, Nanshan%Chen%NULL%0, Jie%Xiang%NULL%0, Ting%Yu%NULL%0, Tao%Bai%NULL%0, Xuelei%Xie%NULL%0, Li%Zhang%NULL%0, Caihong%Li%NULL%1, Ye%Yuan%NULL%1, Hua%Chen%NULL%0, Huadong%Li%NULL%0, Hanping%Huang%NULL%1, Shengjing%Tu%NULL%1, Fengyun%Gong%NULL%0, Ying%Liu%NULL%0, Yuan%Wei%NULL%0, Chongya%Dong%NULL%1, Fei%Zhou%NULL%0, Xiaoying%Gu%NULL%0, Jiuyang%Xu%NULL%0, Zhibo%Liu%NULL%0, Yi%Zhang%NULL%0, Hui%Li%NULL%0, Lianhan%Shang%NULL%0, Ke%Wang%NULL%0, Kunxia%Li%NULL%1, Xia%Zhou%NULL%0, Xuan%Dong%NULL%0, Zhaohui%Qu%NULL%1, Sixia%Lu%NULL%1, Xujuan%Hu%NULL%1, Shunan%Ruan%NULL%1, Shanshan%Luo%NULL%1, Jing%Wu%NULL%0, Lu%Peng%NULL%1, Fang%Cheng%NULL%0, Lihong%Pan%NULL%1, Jun%Zou%NULL%1, Chunmin%Jia%NULL%1, Juan%Wang%NULL%1, Xia%Liu%NULL%1, Shuzhen%Wang%NULL%1, Xudong%Wu%NULL%0, Qin%Ge%NULL%1, Jing%He%NULL%0, Haiyan%Zhan%NULL%1, Fang%Qiu%NULL%1, Li%Guo%NULL%0, Chaolin%Huang%NULL%0, Thomas%Jaki%NULL%1, Frederick G.%Hayden%NULL%0, Peter W.%Horby%NULL%0, Dingyu%Zhang%NULL%0, Chen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0, Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0, Wenlin%Cheng%NULL%0, Lei%Yu%NULL%0, Ya-Kun%Liu%NULL%0, Xiaoyong%Hu%NULL%0, Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Cao%NULL%0, Jia%Wei%NULL%1, Liang%Zou%NULL%1, Tiebin%Jiang%NULL%1, Gaoxiang%Wang%NULL%1, Liting%Chen%NULL%1, Liang%Huang%NULL%1, Fankai%Meng%NULL%1, Lifang%Huang%NULL%1, Na%Wang%NULL%1, Xiaoxi%Zhou%NULL%1, Hui%Luo%NULL%1, Zekai%Mao%NULL%1, Xing%Chen%NULL%1, Jungang%Xie%NULL%0, Jing%Liu%NULL%0, Hui%Cheng%NULL%1, Jianping%Zhao%NULL%0, Gang%Huang%NULL%1, Wei%Wang%NULL%0, Jianfeng%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>American Academy of Allergy, Asthma &amp;amp; Immunology</t>
+  </si>
+  <si>
+    <t>[Giulio%Cavalli%cavalli.giulio@hsr.it%0, Giacomo%De Luca%NULL%1, Corrado%Campochiaro%NULL%0, Emanuel%Della-Torre%NULL%1, Marco%Ripa%NULL%1, Diana%Canetti%NULL%1, Chiara%Oltolini%NULL%1, Barbara%Castiglioni%NULL%1, Chiara%Tassan Din%NULL%1, Nicola%Boffini%NULL%1, Alessandro%Tomelleri%NULL%1, Nicola%Farina%NULL%1, Annalisa%Ruggeri%NULL%0, Patrizia%Rovere-Querini%NULL%0, Giuseppe%Di Lucca%NULL%1, Sabina%Martinenghi%NULL%1, Raffaella%Scotti%NULL%1, Moreno%Tresoldi%NULL%0, Fabio%Ciceri%NULL%0, Giovanni%Landoni%NULL%0, Alberto%Zangrillo%NULL%0, Paolo%Scarpellini%NULL%0, Lorenzo%Dagna%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Jerry Y.%Chao%NULL%0, Kim R.%Derespina%NULL%2, Betsy C.%Herold%NULL%1, David L.%Goldman%NULL%1, Margaret%Aldrich%NULL%1, Jacqueline%Weingarten%NULL%1, Henry M.%Ushay%NULL%2, Michael D.%Cabana%NULL%1, Shivanand S.%Medar%NULL%2]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0, Di%Wu%NULL%0, Huilong%Chen%NULL%0, Weiming%Yan%NULL%0, Danlei%Yang%NULL%0, Guang%Chen%NULL%0, Ke%Ma%NULL%0, Dong%Xu%NULL%0, Haijing%Yu%NULL%0, Hongwu%Wang%NULL%0, Tao%Wang%NULL%0, Wei%Guo%NULL%0, Jia%Chen%NULL%0, Chen%Ding%NULL%0, Xiaoping%Zhang%NULL%0, Jiaquan%Huang%NULL%0, Meifang%Han%NULL%0, Shusheng%Li%NULL%0, Xiaoping%Luo%NULL%0, Jianping%Zhao%NULL%0, Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In December 2019, the corona virus disease 2019 (COVID-19) caused by novel coronavirus (SARS-CoV-2) emerged in Wuhan, China and rapidly spread worldwide.
+ Few information on clinical features and immunological profile of COVID-19 in paediatrics.
+ The clinical features and treatment outcomes of twelve paediatric patients confirmed as COVID-19 were analyzed.
+ The immunological features of children patients was investigated and compared with twenty adult patients.
+ The median age was 14.5-years (range from 0.64 to 17), and six of the patients were male.
+ The average incubation period was 8 days.
+ Clinically, cough (9/12, 75%) and fever (7/12, 58.3%) were the most common symptoms.
+ Four patients (33.3%) had diarrhea during the disease.
+ As to the immune profile, children had higher amount of total T cell, CD8+ T cell and B cell but lower CRP levels than adults (P &amp;lt; 0.05).
+ Ground-glass opacity (GGO) and local patchy shadowing were the typical radiological findings on chest CT scan.
+ All patients received antiviral and symptomatic treatment and the symptom relieved in 3–4 days after admitted to hospital.
+ The paediatric patients showed mild symptom but with longer incubation period.
+ Children infected with SARS-CoV-2 had different immune profile with higher T cell amount and low inflammatory factors level, which might ascribed to the mild clinical symptom.
+ We advise that nucleic acid test or examination of serum IgM/IgG antibodies against SARS-CoV-2 should be taken for children with exposure history regardless of clinical symptom.
+</t>
+  </si>
+  <si>
+    <t>[Juan%Chen%NULL%0, Zhen-Zhen%Zhang%NULL%1, Yao-Kai%Chen%NULL%1, Quan-Xin%Long%NULL%1, Wen-Guang%Tian%NULL%1, Hai-Jun%Deng%NULL%1, Jie-Li%Hu%NULL%1, Xian-Xiang%Zhang%NULL%1, NULL%Pu-Liao%NULL%1, Jiang-Lin%Xiang%NULL%1, Dao-Xin%Wang%NULL%1, Peng%Hu%NULL%0, Fa-Chun%Zhou%NULL%1, Zhi-Jie%Li%NULL%1, Hong-Mei%Xu%NULL%1, Xue-Fei%Cai%NULL%1, De-Qiang%Wang%NULL%1, Yuan%Hu%NULL%1, Ni%Tang%NULL%1, Bei-Zhong%Liu%liubeizhong@cqmu.edu.cn%1, Gui-Cheng%Wu%wuguic@hotmail.com%1, Ai-Long%Huang%ahuang@cqmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>Chongqing Medical University</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0, Min%Zhou%NULL%0, Xuan%Dong%NULL%0, Jieming%Qu%NULL%0, Fengyun%Gong%NULL%0, Yang%Han%NULL%0, Yang%Qiu%NULL%0, Jingli%Wang%NULL%0, Ying%Liu%NULL%0, Yuan%Wei%NULL%0, Jia'an%Xia%NULL%0, Ting%Yu%NULL%0, Xinxin%Zhang%NULL%0, Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0, Zhencang%Zheng%NULL%0, Chao%Zhang%NULL%0, Xijiang%Zhang%NULL%0, Huijuan%Wu%NULL%0, Jingdong%Wang%NULL%0, Shuwei%Wang%NULL%0, Cheng%Zheng%dr.zhengcheng@foxmail.com%0]</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0, Wenhua%Liang%NULL%0, Mei%Jiang%NULL%0, Weijie%Guan%NULL%0, Chen%Zhan%NULL%0, Tao%Wang%NULL%0, Chunli%Tang%NULL%0, Ling%Sang%NULL%0, Jiaxing%Liu%NULL%0, Zhengyi%Ni%NULL%0, Yu%Hu%NULL%0, Lei%Liu%NULL%0, Hong%Shan%NULL%0, Chunliang%Lei%NULL%0, Yixiang%Peng%NULL%0, Li%Wei%NULL%0, Yong%Liu%NULL%0, Yahua%Hu%NULL%0, Peng%Peng%NULL%0, Jianming%Wang%NULL%0, Jiyang%Liu%NULL%0, Zhong%Chen%NULL%0, Gang%Li%NULL%0, Zhijian%Zheng%NULL%0, Shaoqin%Qiu%NULL%0, Jie%Luo%NULL%0, Changjiang%Ye%NULL%0, Shaoyong%Zhu%NULL%0, Xiaoqing%Liu%NULL%0, Linling%Cheng%NULL%0, Feng%Ye%NULL%0, Jinping%Zheng%NULL%0, Nuofu%Zhang%NULL%0, Yimin%Li%NULL%0, Jianxing%He%NULL%0, Shiyue%Li%lishiyue@188.com%0, Nanshan%Zhong%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>American College of Chest Physicians. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study aims to observe the clinical characteristics of recovered patients from Coronavirus Disease 2019 (COVID‐19) with positive in reverse transcription‐polymerase chain reaction (RT‐PCR) or serum antibody.
+ The profile, clinical symptoms, laboratory outcomes, and radiologic assessments were extracted on 11 patients, who tested positive for COVID‐19 with RT‐PCR or serum antibody after discharged and was admitted to Hubei No.
+ 3 People's Hospital of Jianghan University for a second treatment in March 2020. The average interval time between the first discharge and the second admission measured 16.00 ± 7.14 days, ranging from 6 to 27 days.
+ In the second hospitalization, one patient was positive for RT‐PCR and serum antibody immunoglobulin M (IgM)‐immunoglobulin G (IgG), five patients were positive for both IgM and IgG but negative for RT‐PCR.
+ Three patients were positive for both RT‐PCR and IgG but negative for IgM.
+ The main symptoms were cough (54.55%), fever (27.27%), and feeble (27.27%) in the second hospitalization.
+ Compared with the first hospitalization, there were significant decreases in gastrointestinal symptoms (5 vs 0, P = .
+035), elevated levels of both white blood cell count (P = .
+036) and lymphocyte count (P = .
+002), remarkedly decreases in C‐reactive protein and serum amyloid A (P &amp;lt; .
+05) in the second hospitalization.
+ Additionally, six patients' chest computed tomography (CT) exhibited notable improvements in acute exudative lesions.
+ There could be positive results for RT‐PCR analysis or serum IgM‐IgG in discharged patients, even with mild clinical symptoms, however, their laboratory outcomes and chest CT images would not indicate the on‐going development in those patients.
+</t>
+  </si>
+  <si>
+    <t>[Min%Chen%NULL%0, Wei%An%NULL%2, Wei%An%NULL%0, Fei%Xia%NULL%0, Ping%Yang%NULL%0, Kuangyu%Li%NULL%1, Qin%Zhou%NULL%1, Shasha%Fang%NULL%1, Yaling%Liao%NULL%1, Xin%Xu%NULL%0, Jialin%Liu%NULL%1, Shiguo%Liu%NULL%1, Tao%Qin%NULL%1, Jianjun%Zhang%NULL%1, Wei%Wei%NULL%0, Yafang%Zhang%NULL%1, Guowei%Zhang%NULL%1, Mingwei%Zhang%383193522@qq.com%1]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In December 2019, an outbreak of the severe acute respiratory syndrome coronavirus 2 (SARS‐Cov‐2) infection occurred in Wuhan, and rapidly spread to worldwide, which has attracted many people's concerns about the patients.
+ However, studies on the infection status of medical personnel is still lacking.
+ A total of 54 cases of SARS‐Cov‐2 infected medical staff from Tongji Hospital between 7 January and 11 February 2020 were analyzed in this retrospective study.
+ Clinical and epidemiological characteristics were compared between different groups by statistical method.
+ From 7 January to 11 February 2020, 54 medical staff of Tongji Hospital were hospitalized due to coronavirus disease 2019 (COVID‐19).
+ Most of them were from other clinical departments (72.2%) rather than emergency department (3.7%) or medical technology departments (18.5%).
+ Among the 54 patients with COVID‐19, the distribution of age had a significant difference between non‐severe type and severe/critical cases (median age: 47 years vs 38 years; P = .
+0015).
+ However, there was no statistical difference in terms of gender distribution and the first symptoms between theses two groups.
+ Furthermore, we observed that the lesion regions in SARS‐Cov‐2 infected lungs with severe‐/critical‐type of medical staff were more likely to exhibit lesions in the right upper lobe (31.7% vs 0%; P = .
+028) and right lung (61% vs 18.2%; P = .
+012).
+ Based on our findings with medical staff infection data, we suggest training for all hospital staff to prevent infection and preparation of sufficient protection and disinfection materials.
+</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0, Nan%Yang%NULL%0, Nan%Yang%NULL%0, Yanqiu%Wei%NULL%0, Huihui%Yue%NULL%0, Fengqin%Zhang%NULL%0, Jianping%Zhao%NULL%0, Li%He%NULL%0, Gaohong%Sheng%NULL%0, Gaohong%Sheng%NULL%0, Peng%Chen%NULL%0, Gang%Li%NULL%0, Sisi%Wu%NULL%0, Bo%Zhang%NULL%0, Shu%Zhang%szhang@tjh.tjmu.edu.cn%0, Congyi%Wang%wangcy@tjh.tjmu.edu.cn%0, Xiaoping%Miao%miaoxp@hust.edu.cn%0, Juan%Li%lijuan@tjh.tjmu.edu.cn%0, Wenhua%Liu%liuwh_2013@126.com%0, Huilan%Zhang%huilanz_76@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Cosgriff%NULL%0, Susannah%Ahern%NULL%1, Scott C.%Bell%NULL%1, Keith%Brownlee%NULL%1, Pierre-Régis%Burgel%NULL%1, Cass%Byrnes%NULL%1, Harriet%Corvol%NULL%1, Stephanie Y.%Cheng%NULL%1, Alexander%Elbert%NULL%1, Albert%Faro%NULL%1, Christopher H.%Goss%NULL%1, Vincent%Gulmans%NULL%1, Bruce C.%Marshall%NULL%1, Edward%McKone%NULL%1, Peter G.%Middleton%NULL%1, Rasa%Ruseckaite%NULL%1, Anne L.%Stephenson%NULL%1, Siobhán B%Carr%NULL%1, David%Reid%NULL%1, Peter%Wark%NULL%1, Géraldine%Daneau%NULL%1, Véronique%Boussaud%NULL%1, Graziella%Brinchault%NULL%1, Emmanuelle%Coirier-Duet%NULL%1, Jean-Christophe%Dubus%NULL%1, Dominique%Grenet%NULL%1, Sandra de%Miranda%NULL%1, Laurence%Beaumont%NULL%1, Reem%Kanaan%NULL%1, Muriel%Lauraens%NULL%1, Clémence%Martin%NULL%1, Marie%Mittaine%NULL%1, Anne%Prévotat%NULL%1, Martine%Reynaud-Gaubert%NULL%1, Isabelle%Sermet-Gaudelus%NULL%1, Aurelie%Tatopoulos%NULL%1, Lutz%Nährlich%NULL%1, Barry%Plant%NULL%1, Cedric%Gunaratnam%NULL%1, Abaigeal%Jackson%NULL%1, Karin M. de Winter-de%Groot%NULL%1, Bart%Luijk%NULL%1, Geertjan%Wesseling%NULL%1, Mark%Allenby%NULL%1, Jamie%Duckers%NULL%1, Elaine%Gunn%NULL%1, Andrew%Jones%NULL%1, Robert Ian%Ketchell%NULL%1, Susan L.%Madge%NULL%1, Anirban%Maitra%NULL%1, Ghulam%Mujtaba%NULL%1, Helen%Rodgers%NULL%1, Nadia%Shafi%NULL%1, Nicholas%Simmonds%NULL%1, Kevin%Southern%NULL%1, Danie%Watson%NULL%1, Samar%Rizvi%NULL%1, Julie%Seguin%NULL%1, Janet%Garbarz%NULL%1, Kristen%Rosamilia%NULL%1, Maria%Berdella%NULL%1, Jerry A.%Nick%NULL%1, Richard%Belkin%NULL%1, Diana%Gilmore%NULL%1, Kim%McBennett%NULL%1, Rita%Padoan%NULL%1, Marco%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>The Authors. Published by Elsevier B.V. on behalf of European Cystic Fibrosis Society.</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%0, Matthew R%Baldwin%NULL%0, Darryl%Abrams%NULL%0, Samuel D%Jacobson%NULL%0, Benjamin J%Meyer%NULL%0, Elizabeth M%Balough%NULL%0, Justin G%Aaron%NULL%0, Jan%Claassen%NULL%0, LeRoy E%Rabbani%NULL%0, Jonathan%Hastie%NULL%0, Beth R%Hochman%NULL%0, John%Salazar-Schicchi%NULL%0, Natalie H%Yip%NULL%0, Daniel%Brodie%NULL%0, Max R%O'Donnell%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              An outbreak of pneumonia of COVID-19 was recently reported in China, with highly infectious.
+</t>
+  </si>
+  <si>
+    <t>[Hui%Dai%NULL%0, Xin%Zhang%NULL%0, Jianguo%Xia%NULL%1, Tao%Zhang%NULL%0, Yalei%Shang%NULL%1, Renjun%Huang%NULL%1, Rongrong%Liu%NULL%1, Dan%Wang%NULL%0, Min%Li%105549156@qq.com%1, Jinping%Wu%czwjp@sina.com%1, Qiuzhen%Xu%xuqiuzhen831@sina.com%1, Yonggang%Li%liyonggang224@163.com%1]</t>
+  </si>
+  <si>
+    <t>The Author(s). Published by Elsevier Ltd on behalf of International Society for Infectious Diseases.</t>
   </si>
 </sst>
 </file>
@@ -3038,10 +3374,10 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>802</v>
       </c>
       <c r="E2" t="s">
-        <v>738</v>
+        <v>803</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -3053,10 +3389,10 @@
         <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>554</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>804</v>
       </c>
     </row>
     <row r="3">
@@ -3070,10 +3406,10 @@
         <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>805</v>
       </c>
       <c r="E3" t="s">
-        <v>739</v>
+        <v>806</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -3085,10 +3421,10 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>554</v>
+        <v>64</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>807</v>
       </c>
     </row>
     <row r="4">
@@ -3102,10 +3438,10 @@
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>808</v>
       </c>
       <c r="E4" t="s">
-        <v>740</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -3117,10 +3453,10 @@
         <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>554</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>809</v>
       </c>
     </row>
     <row r="5">
@@ -3137,7 +3473,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>741</v>
+        <v>810</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -3149,10 +3485,10 @@
         <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>554</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>811</v>
       </c>
     </row>
     <row r="6">
@@ -3169,7 +3505,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>742</v>
+        <v>812</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -3181,10 +3517,10 @@
         <v>62</v>
       </c>
       <c r="I6" t="s">
-        <v>559</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>813</v>
       </c>
     </row>
     <row r="7">
@@ -3201,7 +3537,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>743</v>
+        <v>814</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -3213,10 +3549,10 @@
         <v>67</v>
       </c>
       <c r="I7" t="s">
-        <v>554</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>64</v>
+        <v>815</v>
       </c>
     </row>
     <row r="8">
@@ -3227,25 +3563,25 @@
         <v>43923.0</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>744</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
         <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>562</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
         <v>64</v>
@@ -3265,7 +3601,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>745</v>
+        <v>816</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -3277,10 +3613,10 @@
         <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>559</v>
+        <v>64</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
+        <v>817</v>
       </c>
     </row>
     <row r="10">
@@ -3297,7 +3633,7 @@
         <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>746</v>
+        <v>818</v>
       </c>
       <c r="F10" t="s">
         <v>75</v>
@@ -3309,10 +3645,10 @@
         <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>559</v>
+        <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>813</v>
       </c>
     </row>
     <row r="11">
@@ -3329,7 +3665,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>747</v>
+        <v>819</v>
       </c>
       <c r="F11" t="s">
         <v>79</v>
@@ -3341,10 +3677,10 @@
         <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>554</v>
+        <v>64</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>820</v>
       </c>
     </row>
     <row r="12">
@@ -3361,7 +3697,7 @@
         <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>748</v>
+        <v>821</v>
       </c>
       <c r="F12" t="s">
         <v>84</v>
@@ -3373,10 +3709,10 @@
         <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>554</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>822</v>
       </c>
     </row>
     <row r="13">
@@ -3393,7 +3729,7 @@
         <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>749</v>
+        <v>823</v>
       </c>
       <c r="F13" t="s">
         <v>88</v>
@@ -3405,10 +3741,10 @@
         <v>89</v>
       </c>
       <c r="I13" t="s">
-        <v>554</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>64</v>
+        <v>824</v>
       </c>
     </row>
     <row r="14">
@@ -3425,7 +3761,7 @@
         <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>750</v>
+        <v>825</v>
       </c>
       <c r="F14" t="s">
         <v>93</v>
@@ -3437,10 +3773,10 @@
         <v>94</v>
       </c>
       <c r="I14" t="s">
-        <v>559</v>
+        <v>64</v>
       </c>
       <c r="J14" t="s">
-        <v>64</v>
+        <v>826</v>
       </c>
     </row>
     <row r="15">
@@ -3451,28 +3787,28 @@
         <v>43917.0</v>
       </c>
       <c r="C15" t="s">
-        <v>309</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>451</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>311</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>617</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
         <v>64</v>
       </c>
       <c r="J15" t="s">
-        <v>618</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16">
@@ -3486,10 +3822,10 @@
         <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>827</v>
       </c>
       <c r="E16" t="s">
-        <v>751</v>
+        <v>828</v>
       </c>
       <c r="F16" t="s">
         <v>98</v>
@@ -3501,10 +3837,10 @@
         <v>99</v>
       </c>
       <c r="I16" t="s">
-        <v>554</v>
+        <v>64</v>
       </c>
       <c r="J16" t="s">
-        <v>64</v>
+        <v>829</v>
       </c>
     </row>
     <row r="17">
@@ -3521,7 +3857,7 @@
         <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>752</v>
+        <v>830</v>
       </c>
       <c r="F17" t="s">
         <v>103</v>
@@ -3533,10 +3869,10 @@
         <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>554</v>
+        <v>64</v>
       </c>
       <c r="J17" t="s">
-        <v>64</v>
+        <v>822</v>
       </c>
     </row>
     <row r="18">
@@ -3550,10 +3886,10 @@
         <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>407</v>
+        <v>105</v>
       </c>
       <c r="E18" t="s">
-        <v>753</v>
+        <v>831</v>
       </c>
       <c r="F18" t="s">
         <v>107</v>
@@ -3565,10 +3901,10 @@
         <v>108</v>
       </c>
       <c r="I18" t="s">
-        <v>573</v>
+        <v>64</v>
       </c>
       <c r="J18" t="s">
-        <v>64</v>
+        <v>832</v>
       </c>
     </row>
     <row r="19">
@@ -3585,7 +3921,7 @@
         <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>754</v>
+        <v>833</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -3597,10 +3933,10 @@
         <v>57</v>
       </c>
       <c r="I19" t="s">
-        <v>554</v>
+        <v>64</v>
       </c>
       <c r="J19" t="s">
-        <v>64</v>
+        <v>834</v>
       </c>
     </row>
     <row r="20">
@@ -3614,10 +3950,10 @@
         <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>835</v>
       </c>
       <c r="E20" t="s">
-        <v>755</v>
+        <v>836</v>
       </c>
       <c r="F20" t="s">
         <v>116</v>
@@ -3629,10 +3965,10 @@
         <v>117</v>
       </c>
       <c r="I20" t="s">
-        <v>559</v>
+        <v>64</v>
       </c>
       <c r="J20" t="s">
-        <v>64</v>
+        <v>837</v>
       </c>
     </row>
     <row r="21">
@@ -3646,10 +3982,10 @@
         <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>838</v>
       </c>
       <c r="E21" t="s">
-        <v>756</v>
+        <v>839</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -3661,10 +3997,10 @@
         <v>122</v>
       </c>
       <c r="I21" t="s">
-        <v>559</v>
+        <v>64</v>
       </c>
       <c r="J21" t="s">
-        <v>64</v>
+        <v>837</v>
       </c>
     </row>
     <row r="22">
@@ -3681,7 +4017,7 @@
         <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>757</v>
+        <v>840</v>
       </c>
       <c r="F22" t="s">
         <v>126</v>
@@ -3693,10 +4029,10 @@
         <v>127</v>
       </c>
       <c r="I22" t="s">
-        <v>554</v>
+        <v>64</v>
       </c>
       <c r="J22" t="s">
-        <v>64</v>
+        <v>841</v>
       </c>
     </row>
     <row r="23">
@@ -3713,7 +4049,7 @@
         <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>758</v>
+        <v>842</v>
       </c>
       <c r="F23" t="s">
         <v>131</v>
@@ -3725,10 +4061,10 @@
         <v>57</v>
       </c>
       <c r="I23" t="s">
-        <v>554</v>
+        <v>64</v>
       </c>
       <c r="J23" t="s">
-        <v>64</v>
+        <v>822</v>
       </c>
     </row>
     <row r="24">
@@ -3742,10 +4078,10 @@
         <v>132</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>843</v>
       </c>
       <c r="E24" t="s">
-        <v>759</v>
+        <v>844</v>
       </c>
       <c r="F24" t="s">
         <v>135</v>
@@ -3757,10 +4093,10 @@
         <v>136</v>
       </c>
       <c r="I24" t="s">
-        <v>554</v>
+        <v>64</v>
       </c>
       <c r="J24" t="s">
-        <v>64</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>
